--- a/spliced/falling/2023-03-25_18-00-50/data_selected.xlsx
+++ b/spliced/falling/2023-03-25_18-00-50/data_selected.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1035,34 +1035,6 @@
         <v>0.038026362657547</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="n">
-        <v>2000</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>falling</t>
-        </is>
-      </c>
-      <c r="C22" t="n">
-        <v>2.14622653722763</v>
-      </c>
-      <c r="D22" t="n">
-        <v>5.513726615905762</v>
-      </c>
-      <c r="E22" t="n">
-        <v>-1.284043130278588</v>
-      </c>
-      <c r="F22" t="n">
-        <v>0.0577267669141292</v>
-      </c>
-      <c r="G22" t="n">
-        <v>0.2557998299598694</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0.0554360225796699</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/spliced/falling/2023-03-25_18-00-50/data_selected.xlsx
+++ b/spliced/falling/2023-03-25_18-00-50/data_selected.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,22 +485,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>-3.200806391239166</v>
+        <v>-3.195676267147064</v>
       </c>
       <c r="D2" t="n">
-        <v>5.102767634391784</v>
+        <v>5.127160429954529</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.615257918834686</v>
+        <v>-1.443197593092918</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0209221355617046</v>
+        <v>0.0357356183230876</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.0384845100343227</v>
+        <v>0.0120645882561802</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.0244346093386411</v>
+        <v>0.1313360333442688</v>
       </c>
     </row>
     <row r="3">
@@ -513,22 +513,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>-3.029823303222656</v>
+        <v>-3.130342268943787</v>
       </c>
       <c r="D3" t="n">
-        <v>4.992731475830078</v>
+        <v>5.136516356468201</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.61734961271286</v>
+        <v>-1.369547128677368</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.015118914656341</v>
+        <v>0.0088575463742017</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0719293802976608</v>
+        <v>0.0383317954838275</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0126754539087414</v>
+        <v>0.0606283769011497</v>
       </c>
     </row>
     <row r="4">
@@ -541,22 +541,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>-3.210780489444732</v>
+        <v>-3.034864258766174</v>
       </c>
       <c r="D4" t="n">
-        <v>4.921667981147766</v>
+        <v>5.101877164840698</v>
       </c>
       <c r="E4" t="n">
-        <v>-1.72061755657196</v>
+        <v>-1.325036150217056</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0360410511493682</v>
+        <v>-0.0204639863222837</v>
       </c>
       <c r="G4" t="n">
-        <v>0.07635815441608421</v>
+        <v>0.0259617734700441</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0280998013913631</v>
+        <v>0.0542142912745475</v>
       </c>
     </row>
     <row r="5">
@@ -569,22 +569,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>-3.178400778770446</v>
+        <v>-3.194309616088868</v>
       </c>
       <c r="D5" t="n">
-        <v>4.880098485946656</v>
+        <v>5.024436473846436</v>
       </c>
       <c r="E5" t="n">
-        <v>-2.040961933135986</v>
+        <v>-1.315180826187134</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0594066455960273</v>
+        <v>-0.0181732401251792</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.1638645976781845</v>
+        <v>0.0203112699091434</v>
       </c>
       <c r="H5" t="n">
-        <v>0.08964447677135461</v>
+        <v>-0.0135917514562606</v>
       </c>
     </row>
     <row r="6">
@@ -597,22 +597,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>-2.949770748615264</v>
+        <v>-3.382834231853486</v>
       </c>
       <c r="D6" t="n">
-        <v>4.483399033546448</v>
+        <v>5.098868799209595</v>
       </c>
       <c r="E6" t="n">
-        <v>-2.752424448728561</v>
+        <v>-1.453447324037552</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0355829000473022</v>
+        <v>-0.0335975885391235</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.3000875413417816</v>
+        <v>-0.0102319931611418</v>
       </c>
       <c r="H6" t="n">
-        <v>0.2225076705217361</v>
+        <v>-0.0829249545931816</v>
       </c>
     </row>
     <row r="7">
@@ -625,22 +625,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>-2.990773963928222</v>
+        <v>-3.195986032485962</v>
       </c>
       <c r="D7" t="n">
-        <v>3.945426750183105</v>
+        <v>5.139615774154663</v>
       </c>
       <c r="E7" t="n">
-        <v>-3.259512519836425</v>
+        <v>-1.564420849084854</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.1592831164598465</v>
+        <v>-0.0200058370828628</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.1927279829978943</v>
+        <v>-0.0244346093386411</v>
       </c>
       <c r="H7" t="n">
-        <v>0.08918632566928859</v>
+        <v>-0.0164933614432811</v>
       </c>
     </row>
     <row r="8">
@@ -653,22 +653,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>-3.417937135696412</v>
+        <v>-3.200806391239166</v>
       </c>
       <c r="D8" t="n">
-        <v>3.032041627168654</v>
+        <v>5.102767634391784</v>
       </c>
       <c r="E8" t="n">
-        <v>-3.871768438816071</v>
+        <v>-1.615257918834686</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.0438295826315879</v>
+        <v>0.0209221355617046</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.2567161321640014</v>
+        <v>-0.0384845100343227</v>
       </c>
       <c r="H8" t="n">
-        <v>0.5174028873443604</v>
+        <v>-0.0244346093386411</v>
       </c>
     </row>
     <row r="9">
@@ -681,22 +681,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>-4.624590635299682</v>
+        <v>-3.029823303222656</v>
       </c>
       <c r="D9" t="n">
-        <v>1.621185064315797</v>
+        <v>4.992731475830078</v>
       </c>
       <c r="E9" t="n">
-        <v>-3.857953763008118</v>
+        <v>-1.61734961271286</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.3094032406806946</v>
+        <v>-0.015118914656341</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.3773620128631592</v>
+        <v>0.0719293802976608</v>
       </c>
       <c r="H9" t="n">
-        <v>0.2426662147045135</v>
+        <v>0.0126754539087414</v>
       </c>
     </row>
     <row r="10">
@@ -709,22 +709,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>-5.78539115190506</v>
+        <v>-3.210780489444732</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9871260821819303</v>
+        <v>4.921667981147766</v>
       </c>
       <c r="E10" t="n">
-        <v>-4.25688956975937</v>
+        <v>-1.72061755657196</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.8874344825744629</v>
+        <v>0.0360410511493682</v>
       </c>
       <c r="G10" t="n">
-        <v>0.5309945940971375</v>
+        <v>0.07635815441608421</v>
       </c>
       <c r="H10" t="n">
-        <v>-1.072832107543945</v>
+        <v>0.0280998013913631</v>
       </c>
     </row>
     <row r="11">
@@ -737,22 +737,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>-5.853121519088747</v>
+        <v>-3.178400778770446</v>
       </c>
       <c r="D11" t="n">
-        <v>1.529789447784421</v>
+        <v>4.880098485946656</v>
       </c>
       <c r="E11" t="n">
-        <v>-5.259258270263669</v>
+        <v>-2.040961933135986</v>
       </c>
       <c r="F11" t="n">
-        <v>0.5494732856750488</v>
+        <v>0.0594066455960273</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0032070425804704</v>
+        <v>-0.1638645976781845</v>
       </c>
       <c r="H11" t="n">
-        <v>-2.098474740982056</v>
+        <v>0.08964447677135461</v>
       </c>
     </row>
     <row r="12">
@@ -765,22 +765,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>-4.505762827396396</v>
+        <v>-2.949770748615264</v>
       </c>
       <c r="D12" t="n">
-        <v>2.339424359798431</v>
+        <v>4.483399033546448</v>
       </c>
       <c r="E12" t="n">
-        <v>-6.088317966461181</v>
+        <v>-2.752424448728561</v>
       </c>
       <c r="F12" t="n">
-        <v>2.32922911643982</v>
+        <v>0.0355829000473022</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.8979719281196594</v>
+        <v>-0.3000875413417816</v>
       </c>
       <c r="H12" t="n">
-        <v>-10.66692924499512</v>
+        <v>0.2225076705217361</v>
       </c>
     </row>
     <row r="13">
@@ -793,22 +793,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>-4.640337300300603</v>
+        <v>-2.990773963928222</v>
       </c>
       <c r="D13" t="n">
-        <v>2.568937909603119</v>
+        <v>3.945426750183105</v>
       </c>
       <c r="E13" t="n">
-        <v>-3.338159441947926</v>
+        <v>-3.259512519836425</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.8862127661705017</v>
+        <v>-0.1592831164598465</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.2840523421764374</v>
+        <v>-0.1927279829978943</v>
       </c>
       <c r="H13" t="n">
-        <v>-0.5968153476715088</v>
+        <v>0.08918632566928859</v>
       </c>
     </row>
     <row r="14">
@@ -821,22 +821,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>-4.888692498207067</v>
+        <v>-3.417937135696412</v>
       </c>
       <c r="D14" t="n">
-        <v>3.055916017293937</v>
+        <v>3.032041627168654</v>
       </c>
       <c r="E14" t="n">
-        <v>1.562532043457024</v>
+        <v>-3.871768438816071</v>
       </c>
       <c r="F14" t="n">
-        <v>0.3533855378627777</v>
+        <v>-0.0438295826315879</v>
       </c>
       <c r="G14" t="n">
-        <v>0.3121521472930908</v>
+        <v>-0.2567161321640014</v>
       </c>
       <c r="H14" t="n">
-        <v>-0.1898263692855835</v>
+        <v>0.5174028873443604</v>
       </c>
     </row>
     <row r="15">
@@ -849,22 +849,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2.340934371948248</v>
+        <v>-4.624590635299682</v>
       </c>
       <c r="D15" t="n">
-        <v>5.258101367950443</v>
+        <v>1.621185064315797</v>
       </c>
       <c r="E15" t="n">
-        <v>-0.9750384330749563</v>
+        <v>-3.857953763008118</v>
       </c>
       <c r="F15" t="n">
-        <v>0.8429940342903137</v>
+        <v>-0.3094032406806946</v>
       </c>
       <c r="G15" t="n">
-        <v>1.146746754646301</v>
+        <v>-0.3773620128631592</v>
       </c>
       <c r="H15" t="n">
-        <v>0.3846924006938934</v>
+        <v>0.2426662147045135</v>
       </c>
     </row>
     <row r="16">
@@ -877,22 +877,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>4.988028943538676</v>
+        <v>-5.78539115190506</v>
       </c>
       <c r="D16" t="n">
-        <v>6.74178236722947</v>
+        <v>0.9871260821819303</v>
       </c>
       <c r="E16" t="n">
-        <v>-3.390602678060535</v>
+        <v>-4.25688956975937</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.1217148974537849</v>
+        <v>-0.8874344825744629</v>
       </c>
       <c r="G16" t="n">
-        <v>-0.2727513313293457</v>
+        <v>0.5309945940971375</v>
       </c>
       <c r="H16" t="n">
-        <v>-0.4853324294090271</v>
+        <v>-1.072832107543945</v>
       </c>
     </row>
     <row r="17">
@@ -905,22 +905,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>2.14035427570343</v>
+        <v>-5.853121519088747</v>
       </c>
       <c r="D17" t="n">
-        <v>4.595471763610839</v>
+        <v>1.529789447784421</v>
       </c>
       <c r="E17" t="n">
-        <v>-2.538899934291838</v>
+        <v>-5.259258270263669</v>
       </c>
       <c r="F17" t="n">
-        <v>0.2441933751106262</v>
+        <v>0.5494732856750488</v>
       </c>
       <c r="G17" t="n">
-        <v>-0.1647808998823166</v>
+        <v>0.0032070425804704</v>
       </c>
       <c r="H17" t="n">
-        <v>-0.333379715681076</v>
+        <v>-2.098474740982056</v>
       </c>
     </row>
     <row r="18">
@@ -933,22 +933,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>1.776602447032927</v>
+        <v>-4.505762827396396</v>
       </c>
       <c r="D18" t="n">
-        <v>6.611665058135991</v>
+        <v>2.339424359798431</v>
       </c>
       <c r="E18" t="n">
-        <v>-5.802872997522362</v>
+        <v>-6.088317966461181</v>
       </c>
       <c r="F18" t="n">
-        <v>0.4331034719944</v>
+        <v>2.32922911643982</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0910189226269722</v>
+        <v>-0.8979719281196594</v>
       </c>
       <c r="H18" t="n">
-        <v>0.0595593601465225</v>
+        <v>-10.66692924499512</v>
       </c>
     </row>
     <row r="19">
@@ -961,22 +961,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>4.416235065460208</v>
+        <v>-4.640337300300603</v>
       </c>
       <c r="D19" t="n">
-        <v>7.062580394744874</v>
+        <v>2.568937909603119</v>
       </c>
       <c r="E19" t="n">
-        <v>-2.015482711791987</v>
+        <v>-3.338159441947926</v>
       </c>
       <c r="F19" t="n">
-        <v>0.0045814891345798</v>
+        <v>-0.8862127661705017</v>
       </c>
       <c r="G19" t="n">
-        <v>0.061391957104206</v>
+        <v>-0.2840523421764374</v>
       </c>
       <c r="H19" t="n">
-        <v>0.1099557429552078</v>
+        <v>-0.5968153476715088</v>
       </c>
     </row>
     <row r="20">
@@ -989,22 +989,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>2.806813323497772</v>
+        <v>-4.888692498207067</v>
       </c>
       <c r="D20" t="n">
-        <v>4.965753030776977</v>
+        <v>3.055916017293937</v>
       </c>
       <c r="E20" t="n">
-        <v>-0.01951594352722141</v>
+        <v>1.562532043457024</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.2038762718439102</v>
+        <v>0.3533855378627777</v>
       </c>
       <c r="G20" t="n">
-        <v>-0.3239113092422485</v>
+        <v>0.3121521472930908</v>
       </c>
       <c r="H20" t="n">
-        <v>-0.1649336218833923</v>
+        <v>-0.1898263692855835</v>
       </c>
     </row>
     <row r="21">
@@ -1017,22 +1017,302 @@
         </is>
       </c>
       <c r="C21" t="n">
+        <v>2.340934371948248</v>
+      </c>
+      <c r="D21" t="n">
+        <v>5.258101367950443</v>
+      </c>
+      <c r="E21" t="n">
+        <v>-0.9750384330749563</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.8429940342903137</v>
+      </c>
+      <c r="G21" t="n">
+        <v>1.146746754646301</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0.3846924006938934</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>2000</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>4.988028943538676</v>
+      </c>
+      <c r="D22" t="n">
+        <v>6.74178236722947</v>
+      </c>
+      <c r="E22" t="n">
+        <v>-3.390602678060535</v>
+      </c>
+      <c r="F22" t="n">
+        <v>-0.1217148974537849</v>
+      </c>
+      <c r="G22" t="n">
+        <v>-0.2727513313293457</v>
+      </c>
+      <c r="H22" t="n">
+        <v>-0.4853324294090271</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>2100</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>2.14035427570343</v>
+      </c>
+      <c r="D23" t="n">
+        <v>4.595471763610839</v>
+      </c>
+      <c r="E23" t="n">
+        <v>-2.538899934291838</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.2441933751106262</v>
+      </c>
+      <c r="G23" t="n">
+        <v>-0.1647808998823166</v>
+      </c>
+      <c r="H23" t="n">
+        <v>-0.333379715681076</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>2200</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>1.776602447032927</v>
+      </c>
+      <c r="D24" t="n">
+        <v>6.611665058135991</v>
+      </c>
+      <c r="E24" t="n">
+        <v>-5.802872997522362</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.4331034719944</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.0910189226269722</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0.0595593601465225</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>2300</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>4.416235065460208</v>
+      </c>
+      <c r="D25" t="n">
+        <v>7.062580394744874</v>
+      </c>
+      <c r="E25" t="n">
+        <v>-2.015482711791987</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.0045814891345798</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.061391957104206</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0.1099557429552078</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>2400</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>2.806813323497772</v>
+      </c>
+      <c r="D26" t="n">
+        <v>4.965753030776977</v>
+      </c>
+      <c r="E26" t="n">
+        <v>-0.01951594352722141</v>
+      </c>
+      <c r="F26" t="n">
+        <v>-0.2038762718439102</v>
+      </c>
+      <c r="G26" t="n">
+        <v>-0.3239113092422485</v>
+      </c>
+      <c r="H26" t="n">
+        <v>-0.1649336218833923</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>2500</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
         <v>2.194753527641296</v>
       </c>
-      <c r="D21" t="n">
+      <c r="D27" t="n">
         <v>5.068601727485656</v>
       </c>
-      <c r="E21" t="n">
+      <c r="E27" t="n">
         <v>-0.7543873786926241</v>
       </c>
-      <c r="F21" t="n">
+      <c r="F27" t="n">
         <v>-0.07635815441608421</v>
       </c>
-      <c r="G21" t="n">
+      <c r="G27" t="n">
         <v>-0.2206750661134719</v>
       </c>
-      <c r="H21" t="n">
+      <c r="H27" t="n">
         <v>0.038026362657547</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>2600</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>2.14622653722763</v>
+      </c>
+      <c r="D28" t="n">
+        <v>5.513726615905762</v>
+      </c>
+      <c r="E28" t="n">
+        <v>-1.284043130278588</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0.0577267669141292</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.2557998299598694</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0.0554360225796699</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>2700</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>2.037818813323974</v>
+      </c>
+      <c r="D29" t="n">
+        <v>5.183717918395995</v>
+      </c>
+      <c r="E29" t="n">
+        <v>-1.269947481155395</v>
+      </c>
+      <c r="F29" t="n">
+        <v>-0.0160352122038602</v>
+      </c>
+      <c r="G29" t="n">
+        <v>-0.030695978552103</v>
+      </c>
+      <c r="H29" t="n">
+        <v>-0.0510072484612464</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>2800</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>2.045576536655426</v>
+      </c>
+      <c r="D30" t="n">
+        <v>5.118093979358673</v>
+      </c>
+      <c r="E30" t="n">
+        <v>-1.376126399636268</v>
+      </c>
+      <c r="F30" t="n">
+        <v>-0.0320704244077205</v>
+      </c>
+      <c r="G30" t="n">
+        <v>-0.107512280344963</v>
+      </c>
+      <c r="H30" t="n">
+        <v>-0.04505131021142</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>2900</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>2.174056196212769</v>
+      </c>
+      <c r="D31" t="n">
+        <v>5.255697178840638</v>
+      </c>
+      <c r="E31" t="n">
+        <v>-1.429987555742264</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0.0154243474826216</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.1117883399128913</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0.0210748501121997</v>
       </c>
     </row>
   </sheetData>
